--- a/example.xlsx
+++ b/example.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANCHDI2\OneDrive - Alcon\Desktop\Blasenentfernung\dioptre_reduzierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANCHDI2\OneDrive - Alcon\GitHub\dioptre_reduzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC96B29-E557-4465-8D9C-E14C95A6AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D00E96-75AE-4FC9-BB7C-D99DE58976F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -546,7 +557,7 @@
   <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANCHDI2\OneDrive - Alcon\GitHub\dioptre_reduzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D00E96-75AE-4FC9-BB7C-D99DE58976F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037547C5-430D-472D-98C5-BE5721639403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="66">
   <si>
     <t>Title</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>OPTIC OF - Post VD PB</t>
+  </si>
+  <si>
+    <t>OPTIC OF - Diopter</t>
   </si>
 </sst>
 </file>
@@ -554,19 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:E415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K13" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +583,11 @@
       <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -593,8 +600,11 @@
       <c r="D2">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -607,8 +617,11 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -621,8 +634,11 @@
       <c r="D4">
         <v>22.56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -635,8 +651,11 @@
       <c r="D5">
         <v>29.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -649,8 +668,11 @@
       <c r="D6">
         <v>34.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -663,8 +685,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>35.659999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -677,8 +702,11 @@
       <c r="D8">
         <v>25.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -691,8 +719,11 @@
       <c r="D9">
         <v>34.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -705,8 +736,11 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>38.229999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -719,8 +753,11 @@
       <c r="D11">
         <v>20.77</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -733,8 +770,11 @@
       <c r="D12">
         <v>17.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>33.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -747,8 +787,11 @@
       <c r="D13">
         <v>18.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -761,8 +804,11 @@
       <c r="D14">
         <v>26.57</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -775,8 +821,11 @@
       <c r="D15">
         <v>36.619999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>30.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -789,8 +838,11 @@
       <c r="D16">
         <v>20.84</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>34.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -803,8 +855,11 @@
       <c r="D17">
         <v>27.56</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -817,8 +872,11 @@
       <c r="D18">
         <v>29.77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -831,8 +889,11 @@
       <c r="D19">
         <v>28.68</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -845,8 +906,11 @@
       <c r="D20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>32.909999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -859,8 +923,11 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -873,8 +940,11 @@
       <c r="D22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -887,8 +957,11 @@
       <c r="D23">
         <v>28.67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -901,8 +974,11 @@
       <c r="D24">
         <v>29.19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>27.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -915,8 +991,11 @@
       <c r="D25">
         <v>26.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>26.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -929,8 +1008,11 @@
       <c r="D26">
         <v>27.26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -943,8 +1025,11 @@
       <c r="D27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -957,8 +1042,11 @@
       <c r="D28">
         <v>28.01</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -971,8 +1059,11 @@
       <c r="D29">
         <v>28.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -985,8 +1076,11 @@
       <c r="D30">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -999,8 +1093,11 @@
       <c r="D31">
         <v>27.46</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1013,8 +1110,11 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>26.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1027,8 +1127,11 @@
       <c r="D33">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1041,8 +1144,11 @@
       <c r="D34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1055,8 +1161,11 @@
       <c r="D35">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1069,8 +1178,11 @@
       <c r="D36">
         <v>21.11</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1083,8 +1195,11 @@
       <c r="D37">
         <v>24.16</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1097,8 +1212,11 @@
       <c r="D38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1111,8 +1229,11 @@
       <c r="D39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1125,8 +1246,11 @@
       <c r="D40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1139,8 +1263,11 @@
       <c r="D41">
         <v>28.92</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1153,8 +1280,11 @@
       <c r="D42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1297,11 @@
       <c r="D43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1181,8 +1314,11 @@
       <c r="D44">
         <v>22.62</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1195,8 +1331,11 @@
       <c r="D45" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1209,8 +1348,11 @@
       <c r="D46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1223,8 +1365,11 @@
       <c r="D47" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1237,8 +1382,11 @@
       <c r="D48">
         <v>26.44</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1399,11 @@
       <c r="D49" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1265,8 +1416,11 @@
       <c r="D50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1279,8 +1433,11 @@
       <c r="D51" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1293,8 +1450,11 @@
       <c r="D52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1307,8 +1467,11 @@
       <c r="D53">
         <v>26.06</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -1321,8 +1484,11 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1335,8 +1501,11 @@
       <c r="D55">
         <v>28.02</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1349,8 +1518,11 @@
       <c r="D56">
         <v>23.91</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1363,8 +1535,11 @@
       <c r="D57">
         <v>24.42</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1377,8 +1552,11 @@
       <c r="D58">
         <v>22.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1391,8 +1569,11 @@
       <c r="D59">
         <v>17.43</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1405,8 +1586,11 @@
       <c r="D60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1419,8 +1603,11 @@
       <c r="D61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1433,8 +1620,11 @@
       <c r="D62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1447,8 +1637,11 @@
       <c r="D63">
         <v>23.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1461,8 +1654,11 @@
       <c r="D64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>26.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1475,8 +1671,11 @@
       <c r="D65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>27.87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1489,8 +1688,11 @@
       <c r="D66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1503,8 +1705,11 @@
       <c r="D67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1517,8 +1722,11 @@
       <c r="D68" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1531,8 +1739,11 @@
       <c r="D69" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1545,8 +1756,11 @@
       <c r="D70" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1559,8 +1773,11 @@
       <c r="D71" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1573,8 +1790,11 @@
       <c r="D72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1587,8 +1807,11 @@
       <c r="D73" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>29.79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1601,8 +1824,11 @@
       <c r="D74" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1615,8 +1841,11 @@
       <c r="D75" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1629,8 +1858,11 @@
       <c r="D76">
         <v>27.63</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1643,8 +1875,11 @@
       <c r="D77" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1657,8 +1892,11 @@
       <c r="D78" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1671,8 +1909,11 @@
       <c r="D79">
         <v>28.83</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1685,8 +1926,11 @@
       <c r="D80" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -1699,8 +1943,11 @@
       <c r="D81" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1713,8 +1960,11 @@
       <c r="D82" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1727,8 +1977,11 @@
       <c r="D83">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1741,8 +1994,11 @@
       <c r="D84" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +2011,11 @@
       <c r="D85">
         <v>26.65</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>27.87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1769,8 +2028,11 @@
       <c r="D86">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1783,8 +2045,11 @@
       <c r="D87" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1797,8 +2062,11 @@
       <c r="D88">
         <v>12.05</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1811,8 +2079,11 @@
       <c r="D89">
         <v>23.21</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1825,8 +2096,11 @@
       <c r="D90">
         <v>28.71</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1839,8 +2113,11 @@
       <c r="D91">
         <v>23.63</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1853,8 +2130,11 @@
       <c r="D92" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1867,8 +2147,11 @@
       <c r="D93">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +2164,11 @@
       <c r="D94" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -1895,8 +2181,11 @@
       <c r="D95" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -1909,8 +2198,11 @@
       <c r="D96" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -1923,8 +2215,11 @@
       <c r="D97">
         <v>16.12</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +2232,11 @@
       <c r="D98">
         <v>28.05</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -1951,8 +2249,11 @@
       <c r="D99" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -1965,8 +2266,11 @@
       <c r="D100" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>26.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1979,8 +2283,11 @@
       <c r="D101" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -1993,8 +2300,11 @@
       <c r="D102" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2007,8 +2317,11 @@
       <c r="D103" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2021,8 +2334,11 @@
       <c r="D104" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2035,8 +2351,11 @@
       <c r="D105" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2049,8 +2368,11 @@
       <c r="D106" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2063,8 +2385,11 @@
       <c r="D107" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>31.87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2077,8 +2402,11 @@
       <c r="D108" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2091,8 +2419,11 @@
       <c r="D109">
         <v>22.19</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2105,8 +2436,11 @@
       <c r="D110" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>29.46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2119,8 +2453,11 @@
       <c r="D111" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -2133,8 +2470,11 @@
       <c r="D112">
         <v>23.36</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -2147,8 +2487,11 @@
       <c r="D113" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2161,8 +2504,11 @@
       <c r="D114">
         <v>29.37</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2175,8 +2521,11 @@
       <c r="D115">
         <v>16.579999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -2189,8 +2538,11 @@
       <c r="D116" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>27.34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -2203,8 +2555,11 @@
       <c r="D117" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -2217,8 +2572,11 @@
       <c r="D118" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -2231,8 +2589,11 @@
       <c r="D119" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2245,8 +2606,11 @@
       <c r="D120" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>30.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -2259,8 +2623,11 @@
       <c r="D121">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -2273,8 +2640,11 @@
       <c r="D122">
         <v>28.17</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -2287,8 +2657,11 @@
       <c r="D123">
         <v>25.09</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -2301,8 +2674,11 @@
       <c r="D124" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -2315,8 +2691,11 @@
       <c r="D125">
         <v>23.87</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -2329,8 +2708,11 @@
       <c r="D126" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -2343,8 +2725,11 @@
       <c r="D127">
         <v>29.19</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -2357,8 +2742,11 @@
       <c r="D128">
         <v>25.36</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -2371,8 +2759,11 @@
       <c r="D129">
         <v>23.18</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -2385,8 +2776,11 @@
       <c r="D130" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -2399,8 +2793,11 @@
       <c r="D131" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -2413,8 +2810,11 @@
       <c r="D132">
         <v>27.62</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -2427,8 +2827,11 @@
       <c r="D133">
         <v>32.03</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2441,8 +2844,11 @@
       <c r="D134">
         <v>28.02</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -2455,8 +2861,11 @@
       <c r="D135">
         <v>29.68</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -2469,8 +2878,11 @@
       <c r="D136">
         <v>29.76</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -2483,8 +2895,11 @@
       <c r="D137">
         <v>30.94</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -2497,8 +2912,11 @@
       <c r="D138">
         <v>29.22</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -2511,8 +2929,11 @@
       <c r="D139">
         <v>22.42</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -2525,8 +2946,11 @@
       <c r="D140">
         <v>24.42</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -2539,8 +2963,11 @@
       <c r="D141">
         <v>27.84</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -2553,8 +2980,11 @@
       <c r="D142">
         <v>27.69</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -2567,8 +2997,11 @@
       <c r="D143">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -2581,8 +3014,11 @@
       <c r="D144">
         <v>34.770000000000003</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -2595,8 +3031,11 @@
       <c r="D145">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -2609,8 +3048,11 @@
       <c r="D146">
         <v>28.49</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -2623,8 +3065,11 @@
       <c r="D147">
         <v>27.25</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -2637,8 +3082,11 @@
       <c r="D148">
         <v>29.46</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -2651,8 +3099,11 @@
       <c r="D149" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -2665,8 +3116,11 @@
       <c r="D150">
         <v>28.56</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -2679,8 +3133,11 @@
       <c r="D151">
         <v>26.95</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -2693,8 +3150,11 @@
       <c r="D152">
         <v>22.52</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -2707,8 +3167,11 @@
       <c r="D153">
         <v>31.76</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -2721,8 +3184,11 @@
       <c r="D154" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -2735,8 +3201,11 @@
       <c r="D155" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -2749,8 +3218,11 @@
       <c r="D156" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -2763,8 +3235,11 @@
       <c r="D157" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -2777,8 +3252,11 @@
       <c r="D158" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -2791,8 +3269,11 @@
       <c r="D159" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -2805,8 +3286,11 @@
       <c r="D160" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -2819,8 +3303,11 @@
       <c r="D161" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -2833,8 +3320,11 @@
       <c r="D162" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -2847,8 +3337,11 @@
       <c r="D163" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -2861,8 +3354,11 @@
       <c r="D164" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -2875,8 +3371,11 @@
       <c r="D165" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -2889,8 +3388,11 @@
       <c r="D166" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -2903,8 +3405,11 @@
       <c r="D167">
         <v>24.16</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -2917,8 +3422,11 @@
       <c r="D168">
         <v>20.23</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -2931,8 +3439,11 @@
       <c r="D169">
         <v>24.49</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -2945,8 +3456,11 @@
       <c r="D170">
         <v>24.84</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>26.68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -2959,8 +3473,11 @@
       <c r="D171" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -2973,8 +3490,11 @@
       <c r="D172" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -2987,8 +3507,11 @@
       <c r="D173" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -3001,8 +3524,11 @@
       <c r="D174" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>26.66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -3015,8 +3541,11 @@
       <c r="D175" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -3029,8 +3558,11 @@
       <c r="D176" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -3043,8 +3575,11 @@
       <c r="D177">
         <v>17.52</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -3057,8 +3592,11 @@
       <c r="D178">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -3071,8 +3609,11 @@
       <c r="D179">
         <v>24.82</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -3085,8 +3626,11 @@
       <c r="D180">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -3099,8 +3643,11 @@
       <c r="D181">
         <v>17.03</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -3113,8 +3660,11 @@
       <c r="D182">
         <v>22.12</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -3127,8 +3677,11 @@
       <c r="D183" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>47.48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -3141,8 +3694,11 @@
       <c r="D184">
         <v>28.32</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -3155,8 +3711,11 @@
       <c r="D185">
         <v>22.82</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -3169,8 +3728,11 @@
       <c r="D186">
         <v>24.76</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -3183,8 +3745,11 @@
       <c r="D187">
         <v>23.19</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -3197,8 +3762,11 @@
       <c r="D188">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -3211,8 +3779,11 @@
       <c r="D189">
         <v>25.38</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -3225,8 +3796,11 @@
       <c r="D190">
         <v>23.39</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -3239,8 +3813,11 @@
       <c r="D191" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -3253,8 +3830,11 @@
       <c r="D192" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -3267,8 +3847,11 @@
       <c r="D193" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>26.66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -3281,8 +3864,11 @@
       <c r="D194" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -3295,8 +3881,11 @@
       <c r="D195" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -3309,8 +3898,11 @@
       <c r="D196">
         <v>17.52</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -3323,8 +3915,11 @@
       <c r="D197">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -3337,8 +3932,11 @@
       <c r="D198">
         <v>24.82</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -3351,8 +3949,11 @@
       <c r="D199">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -3365,8 +3966,11 @@
       <c r="D200">
         <v>17.03</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -3379,8 +3983,11 @@
       <c r="D201">
         <v>22.12</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -3393,8 +4000,11 @@
       <c r="D202" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>47.48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -3407,8 +4017,11 @@
       <c r="D203">
         <v>28.32</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -3421,8 +4034,11 @@
       <c r="D204">
         <v>22.82</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -3435,8 +4051,11 @@
       <c r="D205">
         <v>24.76</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -3449,8 +4068,11 @@
       <c r="D206">
         <v>23.19</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -3463,8 +4085,11 @@
       <c r="D207">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -3477,8 +4102,11 @@
       <c r="D208">
         <v>25.38</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -3491,8 +4119,11 @@
       <c r="D209">
         <v>23.39</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -3505,8 +4136,11 @@
       <c r="D210" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -3519,8 +4153,11 @@
       <c r="D211">
         <v>26.38</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -3533,8 +4170,11 @@
       <c r="D212" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -3547,8 +4187,11 @@
       <c r="D213">
         <v>18.54</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -3561,8 +4204,11 @@
       <c r="D214">
         <v>21.02</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -3575,8 +4221,11 @@
       <c r="D215">
         <v>21.28</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -3589,8 +4238,11 @@
       <c r="D216">
         <v>23.72</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -3603,8 +4255,11 @@
       <c r="D217">
         <v>21.47</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -3617,8 +4272,11 @@
       <c r="D218">
         <v>22.58</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -3631,8 +4289,11 @@
       <c r="D219">
         <v>31.76</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3645,8 +4306,11 @@
       <c r="D220">
         <v>22.83</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -3659,8 +4323,11 @@
       <c r="D221" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -3673,8 +4340,11 @@
       <c r="D222" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -3687,8 +4357,11 @@
       <c r="D223">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -3701,8 +4374,11 @@
       <c r="D224">
         <v>20.54</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -3715,8 +4391,11 @@
       <c r="D225">
         <v>22.59</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -3729,8 +4408,11 @@
       <c r="D226">
         <v>23.12</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -3743,8 +4425,11 @@
       <c r="D227" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -3757,8 +4442,11 @@
       <c r="D228" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -3771,8 +4459,11 @@
       <c r="D229" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -3785,8 +4476,11 @@
       <c r="D230">
         <v>26.38</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -3799,8 +4493,11 @@
       <c r="D231" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -3813,8 +4510,11 @@
       <c r="D232">
         <v>18.54</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -3827,8 +4527,11 @@
       <c r="D233">
         <v>21.02</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -3841,8 +4544,11 @@
       <c r="D234">
         <v>21.28</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -3855,8 +4561,11 @@
       <c r="D235">
         <v>23.72</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -3869,8 +4578,11 @@
       <c r="D236">
         <v>21.47</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -3883,8 +4595,11 @@
       <c r="D237">
         <v>22.58</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -3897,8 +4612,11 @@
       <c r="D238">
         <v>31.76</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -3911,8 +4629,11 @@
       <c r="D239">
         <v>22.83</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -3925,8 +4646,11 @@
       <c r="D240" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -3939,8 +4663,11 @@
       <c r="D241" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -3953,8 +4680,11 @@
       <c r="D242">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -3967,8 +4697,11 @@
       <c r="D243">
         <v>20.54</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -3981,8 +4714,11 @@
       <c r="D244">
         <v>22.59</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -3995,8 +4731,11 @@
       <c r="D245">
         <v>23.12</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -4009,8 +4748,11 @@
       <c r="D246" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -4023,8 +4765,11 @@
       <c r="D247" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -4037,8 +4782,11 @@
       <c r="D248">
         <v>20.57</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -4051,8 +4799,11 @@
       <c r="D249">
         <v>21.46</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -4065,8 +4816,11 @@
       <c r="D250">
         <v>27.86</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -4079,8 +4833,11 @@
       <c r="D251">
         <v>23.58</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -4093,8 +4850,11 @@
       <c r="D252">
         <v>22.87</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -4107,8 +4867,11 @@
       <c r="D253">
         <v>26.66</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -4121,8 +4884,11 @@
       <c r="D254" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -4135,8 +4901,11 @@
       <c r="D255" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -4149,8 +4918,11 @@
       <c r="D256" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -4163,8 +4935,11 @@
       <c r="D257">
         <v>27.86</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -4177,8 +4952,11 @@
       <c r="D258" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -4191,8 +4969,11 @@
       <c r="D259">
         <v>27.65</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -4205,8 +4986,11 @@
       <c r="D260" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -4219,8 +5003,11 @@
       <c r="D261" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -4233,8 +5020,11 @@
       <c r="D262">
         <v>24.66</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -4247,8 +5037,11 @@
       <c r="D263">
         <v>27.37</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4261,8 +5054,11 @@
       <c r="D264" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4275,8 +5071,11 @@
       <c r="D265" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -4289,8 +5088,11 @@
       <c r="D266">
         <v>40.47</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -4303,8 +5105,11 @@
       <c r="D267">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -4317,8 +5122,11 @@
       <c r="D268">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -4331,8 +5139,11 @@
       <c r="D269">
         <v>28.08</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -4345,8 +5156,11 @@
       <c r="D270">
         <v>25.18</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -4359,8 +5173,11 @@
       <c r="D271">
         <v>33.28</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -4373,8 +5190,11 @@
       <c r="D272" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -4387,8 +5207,11 @@
       <c r="D273" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -4401,8 +5224,11 @@
       <c r="D274" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -4415,8 +5241,11 @@
       <c r="D275" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -4429,8 +5258,11 @@
       <c r="D276">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -4443,8 +5275,11 @@
       <c r="D277">
         <v>31.09</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -4457,8 +5292,11 @@
       <c r="D278">
         <v>27.28</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>18</v>
       </c>
@@ -4471,8 +5309,11 @@
       <c r="D279" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>18</v>
       </c>
@@ -4485,8 +5326,11 @@
       <c r="D280" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -4499,8 +5343,11 @@
       <c r="D281">
         <v>23.18</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -4513,8 +5360,11 @@
       <c r="D282">
         <v>24.03</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -4527,8 +5377,11 @@
       <c r="D283">
         <v>29.82</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>18</v>
       </c>
@@ -4541,8 +5394,11 @@
       <c r="D284">
         <v>18.47</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>18</v>
       </c>
@@ -4555,8 +5411,11 @@
       <c r="D285">
         <v>21.19</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>18</v>
       </c>
@@ -4569,8 +5428,11 @@
       <c r="D286">
         <v>22.83</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>18</v>
       </c>
@@ -4583,8 +5445,11 @@
       <c r="D287" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>18</v>
       </c>
@@ -4597,8 +5462,11 @@
       <c r="D288">
         <v>26.57</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>18</v>
       </c>
@@ -4611,8 +5479,11 @@
       <c r="D289">
         <v>26.62</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>18</v>
       </c>
@@ -4625,8 +5496,11 @@
       <c r="D290">
         <v>23.54</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -4639,8 +5513,11 @@
       <c r="D291">
         <v>28.08</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>18</v>
       </c>
@@ -4653,8 +5530,11 @@
       <c r="D292">
         <v>19.079999999999998</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>18</v>
       </c>
@@ -4667,8 +5547,11 @@
       <c r="D293" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>18</v>
       </c>
@@ -4681,8 +5564,11 @@
       <c r="D294" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>18</v>
       </c>
@@ -4695,8 +5581,11 @@
       <c r="D295" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>18</v>
       </c>
@@ -4709,8 +5598,11 @@
       <c r="D296">
         <v>25.36</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -4723,8 +5615,11 @@
       <c r="D297">
         <v>24.88</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>18</v>
       </c>
@@ -4737,8 +5632,11 @@
       <c r="D298" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>18</v>
       </c>
@@ -4751,8 +5649,11 @@
       <c r="D299">
         <v>29.58</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>18</v>
       </c>
@@ -4765,8 +5666,11 @@
       <c r="D300" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>18</v>
       </c>
@@ -4779,8 +5683,11 @@
       <c r="D301" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>18</v>
       </c>
@@ -4793,8 +5700,11 @@
       <c r="D302" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>18</v>
       </c>
@@ -4807,8 +5717,11 @@
       <c r="D303" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>18</v>
       </c>
@@ -4821,8 +5734,11 @@
       <c r="D304">
         <v>18.05</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>18</v>
       </c>
@@ -4835,8 +5751,11 @@
       <c r="D305">
         <v>23.85</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>18</v>
       </c>
@@ -4849,8 +5768,11 @@
       <c r="D306">
         <v>21.01</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>19</v>
       </c>
@@ -4863,8 +5785,11 @@
       <c r="D307">
         <v>27.14</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -4877,8 +5802,11 @@
       <c r="D308" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -4891,8 +5819,11 @@
       <c r="D309">
         <v>21.82</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -4905,8 +5836,11 @@
       <c r="D310">
         <v>26.48</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -4919,8 +5853,11 @@
       <c r="D311">
         <v>19.72</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -4933,8 +5870,11 @@
       <c r="D312">
         <v>26.36</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -4947,8 +5887,11 @@
       <c r="D313">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -4961,8 +5904,11 @@
       <c r="D314">
         <v>28.73</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -4975,8 +5921,11 @@
       <c r="D315" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -4989,8 +5938,11 @@
       <c r="D316">
         <v>30.72</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -5003,8 +5955,11 @@
       <c r="D317">
         <v>26.21</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -5017,8 +5972,11 @@
       <c r="D318" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -5031,8 +5989,11 @@
       <c r="D319">
         <v>20.53</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -5045,8 +6006,11 @@
       <c r="D320" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -5059,8 +6023,11 @@
       <c r="D321">
         <v>34.08</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -5073,8 +6040,11 @@
       <c r="D322">
         <v>21.83</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>19</v>
       </c>
@@ -5087,8 +6057,11 @@
       <c r="D323">
         <v>24.82</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -5101,8 +6074,11 @@
       <c r="D324">
         <v>21.34</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -5115,8 +6091,11 @@
       <c r="D325">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>20</v>
       </c>
@@ -5129,8 +6108,11 @@
       <c r="D326">
         <v>22.06</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -5143,8 +6125,11 @@
       <c r="D327" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5157,8 +6142,11 @@
       <c r="D328">
         <v>26.22</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>19</v>
       </c>
@@ -5171,8 +6159,11 @@
       <c r="D329">
         <v>27.83</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -5185,8 +6176,11 @@
       <c r="D330">
         <v>24.09</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>19</v>
       </c>
@@ -5199,8 +6193,11 @@
       <c r="D331">
         <v>26.21</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>13</v>
       </c>
@@ -5213,8 +6210,11 @@
       <c r="D332">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <v>54.81</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -5227,8 +6227,11 @@
       <c r="D333" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>13</v>
       </c>
@@ -5241,8 +6244,11 @@
       <c r="D334">
         <v>26.93</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>13</v>
       </c>
@@ -5255,8 +6261,11 @@
       <c r="D335">
         <v>21.26</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -5269,8 +6278,11 @@
       <c r="D336">
         <v>28.82</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -5283,8 +6295,11 @@
       <c r="D337">
         <v>23.87</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>13</v>
       </c>
@@ -5297,8 +6312,11 @@
       <c r="D338" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>13</v>
       </c>
@@ -5311,8 +6329,11 @@
       <c r="D339">
         <v>20.079999999999998</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -5325,8 +6346,11 @@
       <c r="D340">
         <v>25.06</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -5339,8 +6363,11 @@
       <c r="D341">
         <v>21.05</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -5353,8 +6380,11 @@
       <c r="D342" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -5367,8 +6397,11 @@
       <c r="D343">
         <v>20.05</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>13</v>
       </c>
@@ -5381,8 +6414,11 @@
       <c r="D344">
         <v>23.39</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -5395,8 +6431,11 @@
       <c r="D345">
         <v>23.81</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>13</v>
       </c>
@@ -5409,8 +6448,11 @@
       <c r="D346">
         <v>20.81</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>49.47</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -5423,8 +6465,11 @@
       <c r="D347">
         <v>25.65</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>13</v>
       </c>
@@ -5437,8 +6482,11 @@
       <c r="D348">
         <v>23.91</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>13</v>
       </c>
@@ -5451,8 +6499,11 @@
       <c r="D349">
         <v>24.37</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -5465,8 +6516,11 @@
       <c r="D350" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -5479,8 +6533,11 @@
       <c r="D351">
         <v>22.25</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>13</v>
       </c>
@@ -5493,8 +6550,11 @@
       <c r="D352">
         <v>20.81</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -5507,8 +6567,11 @@
       <c r="D353">
         <v>24.57</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -5521,8 +6584,11 @@
       <c r="D354">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -5535,8 +6601,11 @@
       <c r="D355">
         <v>21.65</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -5549,8 +6618,11 @@
       <c r="D356">
         <v>25.39</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -5563,8 +6635,11 @@
       <c r="D357">
         <v>19.05</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -5577,8 +6652,11 @@
       <c r="D358">
         <v>21.05</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>13</v>
       </c>
@@ -5591,8 +6669,11 @@
       <c r="D359">
         <v>23.06</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -5605,8 +6686,11 @@
       <c r="D360">
         <v>22.89</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -5619,8 +6703,11 @@
       <c r="D361">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>13</v>
       </c>
@@ -5633,8 +6720,11 @@
       <c r="D362">
         <v>20.079999999999998</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -5647,8 +6737,11 @@
       <c r="D363">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -5661,8 +6754,11 @@
       <c r="D364">
         <v>29.95</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>13</v>
       </c>
@@ -5675,8 +6771,11 @@
       <c r="D365">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -5689,8 +6788,11 @@
       <c r="D366" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>21</v>
       </c>
@@ -5703,8 +6805,11 @@
       <c r="D367">
         <v>21.82</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>21</v>
       </c>
@@ -5717,8 +6822,11 @@
       <c r="D368" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -5731,8 +6839,11 @@
       <c r="D369">
         <v>26.26</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>28.27</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>22</v>
       </c>
@@ -5745,8 +6856,11 @@
       <c r="D370">
         <v>13.12</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>22</v>
       </c>
@@ -5759,8 +6873,11 @@
       <c r="D371">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -5773,8 +6890,11 @@
       <c r="D372">
         <v>28.76</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>14</v>
       </c>
@@ -5787,8 +6907,11 @@
       <c r="D373">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -5801,8 +6924,11 @@
       <c r="D374">
         <v>26.05</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -5815,8 +6941,11 @@
       <c r="D375">
         <v>29.98</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375">
+        <v>32.81</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -5829,8 +6958,11 @@
       <c r="D376">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -5843,8 +6975,11 @@
       <c r="D377">
         <v>28.47</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>14</v>
       </c>
@@ -5857,8 +6992,11 @@
       <c r="D378">
         <v>23.09</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -5871,8 +7009,11 @@
       <c r="D379">
         <v>29.35</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>14</v>
       </c>
@@ -5885,8 +7026,11 @@
       <c r="D380">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -5899,8 +7043,11 @@
       <c r="D381">
         <v>23.84</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -5913,8 +7060,11 @@
       <c r="D382">
         <v>26.56</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -5927,8 +7077,11 @@
       <c r="D383">
         <v>27.87</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>14</v>
       </c>
@@ -5941,8 +7094,11 @@
       <c r="D384">
         <v>23.12</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -5955,8 +7111,11 @@
       <c r="D385">
         <v>27.87</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>14</v>
       </c>
@@ -5969,8 +7128,11 @@
       <c r="D386">
         <v>34.619999999999997</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>14</v>
       </c>
@@ -5983,8 +7145,11 @@
       <c r="D387">
         <v>26.02</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>14</v>
       </c>
@@ -5997,8 +7162,11 @@
       <c r="D388" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -6011,8 +7179,11 @@
       <c r="D389" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -6025,8 +7196,11 @@
       <c r="D390">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -6039,8 +7213,11 @@
       <c r="D391" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>14</v>
       </c>
@@ -6053,8 +7230,11 @@
       <c r="D392">
         <v>24.66</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -6067,8 +7247,11 @@
       <c r="D393">
         <v>31.93</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>14</v>
       </c>
@@ -6081,8 +7264,11 @@
       <c r="D394">
         <v>29.06</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -6095,8 +7281,11 @@
       <c r="D395">
         <v>21.31</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -6109,8 +7298,11 @@
       <c r="D396">
         <v>34.659999999999997</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -6123,8 +7315,11 @@
       <c r="D397">
         <v>19.059999999999999</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>14</v>
       </c>
@@ -6137,8 +7332,11 @@
       <c r="D398">
         <v>31.91</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>14</v>
       </c>
@@ -6151,8 +7349,11 @@
       <c r="D399" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>14</v>
       </c>
@@ -6165,8 +7366,11 @@
       <c r="D400">
         <v>30.31</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>14</v>
       </c>
@@ -6179,8 +7383,11 @@
       <c r="D401">
         <v>27.04</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>15</v>
       </c>
@@ -6193,8 +7400,11 @@
       <c r="D402" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>15</v>
       </c>
@@ -6207,8 +7417,11 @@
       <c r="D403">
         <v>29.18</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -6221,8 +7434,11 @@
       <c r="D404">
         <v>23.22</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>15</v>
       </c>
@@ -6235,8 +7451,11 @@
       <c r="D405">
         <v>24.42</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>15</v>
       </c>
@@ -6249,8 +7468,11 @@
       <c r="D406">
         <v>29.77</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>15</v>
       </c>
@@ -6263,8 +7485,11 @@
       <c r="D407" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -6277,8 +7502,11 @@
       <c r="D408">
         <v>18.420000000000002</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>15</v>
       </c>
@@ -6291,8 +7519,11 @@
       <c r="D409">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>15</v>
       </c>
@@ -6305,8 +7536,11 @@
       <c r="D410">
         <v>30.37</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>15</v>
       </c>
@@ -6319,8 +7553,11 @@
       <c r="D411">
         <v>21.85</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>15</v>
       </c>
@@ -6333,8 +7570,11 @@
       <c r="D412" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>15</v>
       </c>
@@ -6347,8 +7587,11 @@
       <c r="D413">
         <v>24.36</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>15</v>
       </c>
@@ -6361,8 +7604,11 @@
       <c r="D414">
         <v>22.77</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>15</v>
       </c>
@@ -6374,6 +7620,9 @@
       </c>
       <c r="D415">
         <v>22.03</v>
+      </c>
+      <c r="E415">
+        <v>27.45</v>
       </c>
     </row>
   </sheetData>
